--- a/dds/maintenance.xlsx
+++ b/dds/maintenance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8080" tabRatio="390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8080" tabRatio="390"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -464,9 +464,6 @@
     <t>State of health threshold for triggering condition based maintenance for device and array sub-systems</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>options.annual_maintenance_start</t>
   </si>
   <si>
@@ -1383,6 +1380,9 @@
   </si>
   <si>
     <t>LineTableExpand</t>
+  </si>
+  <si>
+    <t>\%</t>
   </si>
 </sst>
 </file>
@@ -2013,8 +2013,8 @@
   </sheetPr>
   <dimension ref="A1:AMF96"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -2047,10 +2047,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -2058,205 +2058,205 @@
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1">
       <c r="A2" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="17" customFormat="1">
       <c r="A3" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:8" s="17" customFormat="1">
       <c r="A4" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:8" s="17" customFormat="1">
       <c r="A5" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="17" customFormat="1" ht="14" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="17" customFormat="1">
       <c r="A7" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="17" customFormat="1">
       <c r="A8" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="17" customFormat="1">
       <c r="A9" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="17" customFormat="1">
       <c r="A10" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>252</v>
-      </c>
       <c r="E10" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="17" customFormat="1">
       <c r="A11" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>265</v>
-      </c>
       <c r="E11" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:8" s="17" customFormat="1">
       <c r="A12" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:8" s="17" customFormat="1">
       <c r="A13" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>113</v>
@@ -2265,15 +2265,15 @@
         <v>114</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="17" customFormat="1" ht="14" customHeight="1">
       <c r="A14" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>96</v>
@@ -2282,15 +2282,15 @@
         <v>97</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="17" customFormat="1">
       <c r="A15" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>68</v>
@@ -2299,58 +2299,58 @@
         <v>75</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1">
       <c r="A16" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="D16" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>293</v>
-      </c>
       <c r="E16" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:1020" s="17" customFormat="1">
       <c r="A17" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>102</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:1020">
       <c r="A18" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>315</v>
-      </c>
       <c r="E18" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -3370,16 +3370,16 @@
     </row>
     <row r="19" spans="1:1020" s="17" customFormat="1">
       <c r="A19" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="13"/>
@@ -3388,16 +3388,16 @@
     </row>
     <row r="20" spans="1:1020" s="14" customFormat="1">
       <c r="A20" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -3440,16 +3440,16 @@
     </row>
     <row r="23" spans="1:1020" s="15" customFormat="1">
       <c r="A23" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="13"/>
@@ -3458,16 +3458,16 @@
     </row>
     <row r="24" spans="1:1020" s="15" customFormat="1">
       <c r="A24" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="13"/>
@@ -3522,7 +3522,7 @@
     </row>
     <row r="28" spans="1:1020" s="14" customFormat="1">
       <c r="A28" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>42</v>
@@ -3539,23 +3539,23 @@
     </row>
     <row r="29" spans="1:1020" s="14" customFormat="1">
       <c r="A29" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:1020" s="15" customFormat="1">
       <c r="A30" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>42</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="31" spans="1:1020" s="14" customFormat="1">
       <c r="A31" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="32" spans="1:1020" s="14" customFormat="1">
       <c r="A32" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>28</v>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="33" spans="1:1020">
       <c r="A33" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>28</v>
@@ -4631,10 +4631,10 @@
     </row>
     <row r="34" spans="1:1020" s="15" customFormat="1">
       <c r="A34" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>115</v>
@@ -4649,10 +4649,10 @@
     </row>
     <row r="35" spans="1:1020" s="15" customFormat="1">
       <c r="A35" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>69</v>
@@ -4667,10 +4667,10 @@
     </row>
     <row r="36" spans="1:1020" s="15" customFormat="1">
       <c r="A36" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>98</v>
@@ -4685,10 +4685,10 @@
     </row>
     <row r="37" spans="1:1020" s="14" customFormat="1">
       <c r="A37" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>71</v>
@@ -4699,10 +4699,10 @@
     </row>
     <row r="38" spans="1:1020" s="15" customFormat="1">
       <c r="A38" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>103</v>
@@ -4717,23 +4717,23 @@
     </row>
     <row r="39" spans="1:1020" s="14" customFormat="1">
       <c r="A39" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:1020" s="14" customFormat="1">
       <c r="A40" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>42</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="41" spans="1:1020" s="14" customFormat="1">
       <c r="A41" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>42</v>
@@ -4761,10 +4761,10 @@
     </row>
     <row r="42" spans="1:1020" s="14" customFormat="1">
       <c r="A42" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>116</v>
@@ -4775,10 +4775,10 @@
     </row>
     <row r="43" spans="1:1020" s="14" customFormat="1">
       <c r="A43" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>70</v>
@@ -4789,10 +4789,10 @@
     </row>
     <row r="44" spans="1:1020" s="14" customFormat="1">
       <c r="A44" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>101</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="45" spans="1:1020" s="15" customFormat="1">
       <c r="A45" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>42</v>
@@ -4821,10 +4821,10 @@
     </row>
     <row r="46" spans="1:1020" s="14" customFormat="1">
       <c r="A46" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>72</v>
@@ -4835,10 +4835,10 @@
     </row>
     <row r="47" spans="1:1020" s="15" customFormat="1">
       <c r="A47" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>104</v>
@@ -4853,27 +4853,27 @@
     </row>
     <row r="48" spans="1:1020" s="14" customFormat="1">
       <c r="A48" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:1020" s="14" customFormat="1">
       <c r="A49" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>38</v>
@@ -4881,13 +4881,13 @@
     </row>
     <row r="50" spans="1:1020" s="14" customFormat="1">
       <c r="A50" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>37</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="51" spans="1:1020" s="14" customFormat="1">
       <c r="A51" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>42</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="52" spans="1:1020" s="14" customFormat="1">
       <c r="A52" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>42</v>
@@ -4923,30 +4923,30 @@
     </row>
     <row r="53" spans="1:1020" s="14" customFormat="1">
       <c r="A53" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:1020">
       <c r="A54" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -4955,16 +4955,16 @@
     </row>
     <row r="55" spans="1:1020">
       <c r="A55" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
@@ -4973,16 +4973,16 @@
     </row>
     <row r="56" spans="1:1020">
       <c r="A56" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -4991,16 +4991,16 @@
     </row>
     <row r="57" spans="1:1020">
       <c r="A57" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
@@ -6021,16 +6021,16 @@
     </row>
     <row r="58" spans="1:1020">
       <c r="A58" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
@@ -7051,78 +7051,78 @@
     </row>
     <row r="59" spans="1:1020" s="14" customFormat="1">
       <c r="A59" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C59" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="D59" s="26" t="s">
         <v>336</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:1020" s="14" customFormat="1">
       <c r="A60" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
     </row>
     <row r="61" spans="1:1020" s="14" customFormat="1">
       <c r="A61" s="30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B61" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:1020" s="14" customFormat="1">
       <c r="A62" s="30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B62" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C62" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="D62" s="31" t="s">
         <v>447</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>448</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
     </row>
     <row r="63" spans="1:1020" s="14" customFormat="1">
       <c r="A63" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C63" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="16" t="s">
         <v>193</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>194</v>
       </c>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
@@ -7131,30 +7131,30 @@
     </row>
     <row r="64" spans="1:1020">
       <c r="A64" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C64" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="D64" s="28" t="s">
         <v>441</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:1020" s="14" customFormat="1">
       <c r="A65" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
@@ -7163,16 +7163,16 @@
     </row>
     <row r="66" spans="1:1020">
       <c r="A66" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
@@ -7181,16 +7181,16 @@
     </row>
     <row r="67" spans="1:1020">
       <c r="A67" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C67" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="D67" s="28" t="s">
         <v>352</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>353</v>
       </c>
       <c r="E67" s="15"/>
       <c r="F67" s="16"/>
@@ -8211,16 +8211,16 @@
     </row>
     <row r="68" spans="1:1020">
       <c r="A68" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C68" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D68" s="28" t="s">
         <v>355</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>356</v>
       </c>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
@@ -9241,16 +9241,16 @@
     </row>
     <row r="69" spans="1:1020">
       <c r="A69" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C69" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="D69" s="28" t="s">
         <v>358</v>
-      </c>
-      <c r="D69" s="28" t="s">
-        <v>359</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
@@ -10271,16 +10271,16 @@
     </row>
     <row r="70" spans="1:1020">
       <c r="A70" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C70" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="D70" s="28" t="s">
         <v>361</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>362</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
@@ -11301,16 +11301,16 @@
     </row>
     <row r="71" spans="1:1020">
       <c r="A71" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C71" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="D71" s="28" t="s">
         <v>364</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>365</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="16"/>
@@ -11319,16 +11319,16 @@
     </row>
     <row r="72" spans="1:1020">
       <c r="A72" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="16"/>
@@ -12349,16 +12349,16 @@
     </row>
     <row r="73" spans="1:1020">
       <c r="A73" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="16"/>
@@ -13379,16 +13379,16 @@
     </row>
     <row r="74" spans="1:1020">
       <c r="A74" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E74" s="15"/>
       <c r="F74" s="16"/>
@@ -14409,16 +14409,16 @@
     </row>
     <row r="75" spans="1:1020" s="14" customFormat="1">
       <c r="A75" s="29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C75" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="D75" s="28" t="s">
         <v>376</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>377</v>
       </c>
       <c r="E75" s="15"/>
       <c r="F75" s="16"/>
@@ -14427,16 +14427,16 @@
     </row>
     <row r="76" spans="1:1020">
       <c r="A76" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E76" s="15"/>
       <c r="F76" s="16"/>
@@ -15457,16 +15457,16 @@
     </row>
     <row r="77" spans="1:1020">
       <c r="A77" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E77" s="15"/>
       <c r="F77" s="16"/>
@@ -16487,16 +16487,16 @@
     </row>
     <row r="78" spans="1:1020">
       <c r="A78" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E78" s="15"/>
       <c r="F78" s="16"/>
@@ -17517,16 +17517,16 @@
     </row>
     <row r="79" spans="1:1020" s="14" customFormat="1">
       <c r="A79" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C79" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="D79" s="28" t="s">
         <v>388</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>389</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="16"/>
@@ -17535,16 +17535,16 @@
     </row>
     <row r="80" spans="1:1020">
       <c r="A80" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="16"/>
@@ -18565,16 +18565,16 @@
     </row>
     <row r="81" spans="1:1020">
       <c r="A81" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="16"/>
@@ -19595,16 +19595,16 @@
     </row>
     <row r="82" spans="1:1020">
       <c r="A82" s="29" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B82" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="16"/>
@@ -20625,16 +20625,16 @@
     </row>
     <row r="83" spans="1:1020">
       <c r="A83" s="29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -20643,16 +20643,16 @@
     </row>
     <row r="84" spans="1:1020">
       <c r="A84" s="29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="16"/>
@@ -21673,16 +21673,16 @@
     </row>
     <row r="85" spans="1:1020">
       <c r="A85" s="29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="16"/>
@@ -22703,16 +22703,16 @@
     </row>
     <row r="86" spans="1:1020">
       <c r="A86" s="29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="16"/>
@@ -23733,16 +23733,16 @@
     </row>
     <row r="87" spans="1:1020">
       <c r="A87" s="29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="16"/>
@@ -23751,16 +23751,16 @@
     </row>
     <row r="88" spans="1:1020">
       <c r="A88" s="29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="16"/>
@@ -24781,16 +24781,16 @@
     </row>
     <row r="89" spans="1:1020">
       <c r="A89" s="29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C89" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="D89" s="28" t="s">
         <v>414</v>
-      </c>
-      <c r="D89" s="28" t="s">
-        <v>415</v>
       </c>
       <c r="E89" s="15"/>
       <c r="F89" s="16"/>
@@ -24799,16 +24799,16 @@
     </row>
     <row r="90" spans="1:1020">
       <c r="A90" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="16"/>
@@ -25829,16 +25829,16 @@
     </row>
     <row r="91" spans="1:1020" s="14" customFormat="1">
       <c r="A91" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E91" s="15"/>
       <c r="F91" s="16"/>
@@ -25847,16 +25847,16 @@
     </row>
     <row r="92" spans="1:1020">
       <c r="A92" s="29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="16"/>
@@ -25865,16 +25865,16 @@
     </row>
     <row r="93" spans="1:1020">
       <c r="A93" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E93" s="15"/>
       <c r="F93" s="16"/>
@@ -26895,16 +26895,16 @@
     </row>
     <row r="94" spans="1:1020" s="14" customFormat="1">
       <c r="A94" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E94" s="15"/>
       <c r="F94" s="16"/>
@@ -26913,16 +26913,16 @@
     </row>
     <row r="95" spans="1:1020">
       <c r="A95" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E95" s="15"/>
       <c r="F95" s="16"/>
@@ -27943,16 +27943,16 @@
     </row>
     <row r="96" spans="1:1020">
       <c r="A96" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E96" s="15"/>
       <c r="F96" s="16"/>
@@ -28989,8 +28989,8 @@
   </sheetPr>
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -29037,25 +29037,25 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" t="s">
         <v>244</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>245</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>246</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>247</v>
-      </c>
-      <c r="G2" t="s">
-        <v>248</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -29066,13 +29066,13 @@
     </row>
     <row r="3" spans="1:18" s="7" customFormat="1">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
@@ -29087,16 +29087,16 @@
         <v>83</v>
       </c>
       <c r="H3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" t="s">
         <v>245</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>246</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>247</v>
-      </c>
-      <c r="K3" t="s">
-        <v>248</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
@@ -29108,13 +29108,13 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D4" t="s">
         <v>79</v>
@@ -29135,24 +29135,24 @@
         <v>83</v>
       </c>
       <c r="J4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K4" t="s">
         <v>245</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>246</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>247</v>
-      </c>
-      <c r="M4" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -29169,10 +29169,10 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>119</v>
@@ -29186,13 +29186,13 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
         <v>79</v>
@@ -29215,25 +29215,25 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" t="s">
         <v>244</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>245</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>246</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>247</v>
-      </c>
-      <c r="G8" t="s">
-        <v>248</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -29249,13 +29249,13 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
@@ -29270,27 +29270,27 @@
         <v>83</v>
       </c>
       <c r="H9" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" t="s">
         <v>245</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>246</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>247</v>
-      </c>
-      <c r="K9" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D10" t="s">
         <v>79</v>
@@ -29311,24 +29311,24 @@
         <v>83</v>
       </c>
       <c r="J10" t="s">
+        <v>244</v>
+      </c>
+      <c r="K10" t="s">
         <v>245</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>246</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>247</v>
-      </c>
-      <c r="M10" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
@@ -29345,10 +29345,10 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>119</v>
@@ -29362,13 +29362,13 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D13" t="s">
         <v>79</v>
@@ -29391,10 +29391,10 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
         <v>107</v>
@@ -29441,10 +29441,10 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
@@ -29461,10 +29461,10 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s">
         <v>78</v>
@@ -29517,10 +29517,10 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
@@ -29537,10 +29537,10 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s">
         <v>78</v>
@@ -29593,21 +29593,21 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
         <v>107</v>
@@ -29654,10 +29654,10 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
         <v>59</v>
@@ -29674,10 +29674,10 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
         <v>78</v>
@@ -29730,10 +29730,10 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s">
         <v>59</v>
@@ -29750,10 +29750,10 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
         <v>78</v>
@@ -29806,210 +29806,210 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" t="s">
         <v>198</v>
-      </c>
-      <c r="C25" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
+        <v>342</v>
+      </c>
+      <c r="B26" t="s">
         <v>343</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" t="s">
         <v>344</v>
       </c>
-      <c r="C26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>345</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>346</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>347</v>
-      </c>
-      <c r="G26" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" t="s">
+        <v>333</v>
+      </c>
+      <c r="D27" t="s">
         <v>201</v>
       </c>
-      <c r="C27" t="s">
-        <v>334</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" t="s">
         <v>202</v>
       </c>
-      <c r="E27" t="s">
-        <v>185</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>203</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>204</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>205</v>
-      </c>
-      <c r="I27" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" t="s">
         <v>201</v>
       </c>
-      <c r="C28" t="s">
-        <v>334</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" t="s">
         <v>202</v>
       </c>
-      <c r="E28" t="s">
-        <v>185</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>203</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>204</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>205</v>
-      </c>
-      <c r="I28" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" t="s">
+        <v>333</v>
+      </c>
+      <c r="D29" t="s">
         <v>201</v>
       </c>
-      <c r="C29" t="s">
-        <v>334</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" t="s">
         <v>202</v>
       </c>
-      <c r="E29" t="s">
-        <v>185</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>203</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>204</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>205</v>
-      </c>
-      <c r="I29" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" t="s">
+        <v>333</v>
+      </c>
+      <c r="D30" t="s">
         <v>201</v>
       </c>
-      <c r="C30" t="s">
-        <v>334</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" t="s">
         <v>202</v>
       </c>
-      <c r="E30" t="s">
-        <v>185</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>203</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>204</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>205</v>
-      </c>
-      <c r="I30" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" t="s">
         <v>201</v>
       </c>
-      <c r="C31" t="s">
-        <v>334</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" t="s">
         <v>202</v>
       </c>
-      <c r="E31" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>203</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>204</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>205</v>
-      </c>
-      <c r="I31" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" t="s">
+        <v>333</v>
+      </c>
+      <c r="D32" t="s">
         <v>201</v>
       </c>
-      <c r="C32" t="s">
-        <v>334</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" t="s">
         <v>202</v>
       </c>
-      <c r="E32" t="s">
-        <v>185</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>203</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>204</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>205</v>
-      </c>
-      <c r="I32" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -30086,10 +30086,10 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -30115,7 +30115,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>16</v>
@@ -30126,7 +30126,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>16</v>
@@ -30137,10 +30137,10 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -30172,10 +30172,10 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -30213,10 +30213,10 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -30233,10 +30233,10 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>16</v>
@@ -30250,10 +30250,10 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -30279,10 +30279,10 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -30313,7 +30313,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -30324,7 +30324,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>16</v>
@@ -30335,10 +30335,10 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -30370,10 +30370,10 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -30411,10 +30411,10 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -30431,10 +30431,10 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>16</v>
@@ -30448,10 +30448,10 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -30477,10 +30477,10 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -30488,10 +30488,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -30521,7 +30521,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>36</v>
@@ -30532,7 +30532,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>16</v>
@@ -30576,7 +30576,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>16</v>
@@ -30587,7 +30587,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>16</v>
@@ -30598,7 +30598,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>16</v>
@@ -30609,7 +30609,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>36</v>
@@ -30620,7 +30620,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>16</v>
@@ -30631,7 +30631,7 @@
     </row>
     <row r="32" spans="1:18" s="7" customFormat="1">
       <c r="A32" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>36</v>
@@ -30655,7 +30655,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>36</v>
@@ -30666,7 +30666,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>35</v>
@@ -30677,10 +30677,10 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -30727,10 +30727,10 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -30759,10 +30759,10 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -30815,10 +30815,10 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -30847,10 +30847,10 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -30903,7 +30903,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>16</v>
@@ -30916,7 +30916,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>16</v>
@@ -30927,7 +30927,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>16</v>
@@ -30938,7 +30938,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>16</v>
@@ -30949,10 +30949,10 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -30999,10 +30999,10 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
@@ -31031,10 +31031,10 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
@@ -31087,7 +31087,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>16</v>
@@ -31098,10 +31098,10 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
@@ -31130,10 +31130,10 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -31186,7 +31186,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>35</v>
@@ -31197,7 +31197,7 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>35</v>
@@ -31208,7 +31208,7 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>35</v>
@@ -31219,7 +31219,7 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>16</v>
@@ -31232,7 +31232,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>16</v>
@@ -31243,7 +31243,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>16</v>
@@ -31254,7 +31254,7 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>16</v>
@@ -31265,7 +31265,7 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>16</v>
@@ -31276,7 +31276,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>16</v>
@@ -31287,7 +31287,7 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>16</v>
@@ -31298,7 +31298,7 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>35</v>
@@ -31309,7 +31309,7 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>35</v>
@@ -31320,7 +31320,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>36</v>
@@ -31331,7 +31331,7 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>16</v>
@@ -31342,7 +31342,7 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
@@ -31365,7 +31365,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>16</v>
@@ -31376,7 +31376,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>16</v>
@@ -31384,7 +31384,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>16</v>
@@ -31392,7 +31392,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>16</v>
@@ -31400,7 +31400,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>16</v>
@@ -31408,7 +31408,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>16</v>
@@ -31416,7 +31416,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>16</v>
@@ -31424,7 +31424,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>16</v>
@@ -31432,7 +31432,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>16</v>
@@ -31440,7 +31440,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>16</v>
@@ -31448,7 +31448,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>16</v>
@@ -31456,7 +31456,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>16</v>
@@ -31464,7 +31464,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>16</v>
@@ -31472,7 +31472,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>16</v>
@@ -31480,7 +31480,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>16</v>
@@ -31488,7 +31488,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>16</v>
@@ -31496,7 +31496,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>35</v>
@@ -31504,7 +31504,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>35</v>
@@ -31512,7 +31512,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>35</v>
@@ -31520,7 +31520,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>35</v>
@@ -31528,7 +31528,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>16</v>
@@ -31536,7 +31536,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>16</v>
@@ -31544,7 +31544,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>16</v>
@@ -31552,7 +31552,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>16</v>
@@ -31560,7 +31560,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B89" t="s">
         <v>93</v>
@@ -31572,10 +31572,10 @@
         <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G89" t="s">
         <v>16</v>
@@ -31589,7 +31589,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B90" t="s">
         <v>93</v>
@@ -31601,10 +31601,10 @@
         <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G90" t="s">
         <v>16</v>
@@ -31618,7 +31618,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B91" t="s">
         <v>93</v>
@@ -31630,10 +31630,10 @@
         <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G91" t="s">
         <v>16</v>
@@ -31647,7 +31647,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -31659,10 +31659,10 @@
         <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G92" t="s">
         <v>16</v>
@@ -31676,7 +31676,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B93" t="s">
         <v>93</v>
@@ -31688,10 +31688,10 @@
         <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G93" t="s">
         <v>16</v>
@@ -31705,7 +31705,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B94" t="s">
         <v>93</v>
@@ -31717,10 +31717,10 @@
         <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G94" t="s">
         <v>16</v>
@@ -31734,7 +31734,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B95" t="s">
         <v>35</v>
@@ -31742,7 +31742,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B96" t="s">
         <v>35</v>
@@ -31766,8 +31766,8 @@
   </sheetPr>
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -31795,7 +31795,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
         <v>93</v>
@@ -31829,7 +31829,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>65</v>
@@ -31840,10 +31840,10 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -31851,7 +31851,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>93</v>
@@ -31886,7 +31886,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
         <v>93</v>
@@ -31927,7 +31927,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
         <v>93</v>
@@ -31947,7 +31947,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
@@ -31976,7 +31976,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" t="s">
         <v>93</v>
@@ -32005,7 +32005,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>65</v>
@@ -32016,10 +32016,10 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -32027,7 +32027,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>93</v>
@@ -32062,7 +32062,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B13" t="s">
         <v>93</v>
@@ -32103,7 +32103,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B14" t="s">
         <v>93</v>
@@ -32123,7 +32123,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B15" t="s">
         <v>93</v>
@@ -32166,7 +32166,7 @@
         <v>140</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>143</v>
+        <v>449</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -32174,7 +32174,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>65</v>
@@ -32185,7 +32185,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>65</v>
@@ -32196,7 +32196,7 @@
     </row>
     <row r="20" spans="1:18" s="7" customFormat="1">
       <c r="A20" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>66</v>
@@ -32220,7 +32220,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>93</v>
@@ -32270,7 +32270,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>93</v>
@@ -32290,7 +32290,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>93</v>
@@ -32346,7 +32346,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>93</v>
@@ -32366,7 +32366,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>93</v>
@@ -32422,21 +32422,21 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -32444,7 +32444,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>93</v>
@@ -32494,7 +32494,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>93</v>
@@ -32514,7 +32514,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>93</v>
@@ -32570,7 +32570,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>93</v>
@@ -32590,7 +32590,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>93</v>
@@ -32646,7 +32646,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>93</v>
@@ -32657,7 +32657,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>67</v>
@@ -32668,7 +32668,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>67</v>
@@ -32679,7 +32679,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>67</v>
@@ -32690,7 +32690,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>67</v>
@@ -32701,16 +32701,16 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
         <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E38" t="s">
         <v>93</v>
@@ -32724,7 +32724,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>65</v>
@@ -32732,7 +32732,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>65</v>
@@ -32740,7 +32740,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>65</v>
@@ -32748,7 +32748,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>65</v>
@@ -32756,39 +32756,39 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>66</v>
@@ -32796,7 +32796,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>66</v>
@@ -32804,7 +32804,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>66</v>
@@ -32812,7 +32812,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>66</v>
@@ -32820,23 +32820,23 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>66</v>
@@ -32844,7 +32844,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>66</v>
@@ -32852,7 +32852,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B55" t="s">
         <v>93</v>
@@ -32881,7 +32881,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B56" t="s">
         <v>93</v>
@@ -32910,7 +32910,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B57" t="s">
         <v>93</v>
@@ -32939,7 +32939,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B58" t="s">
         <v>93</v>
@@ -32968,7 +32968,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B59" t="s">
         <v>93</v>
@@ -32997,7 +32997,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B60" t="s">
         <v>93</v>
@@ -33076,453 +33076,453 @@
         <v>31</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="M1" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" t="s">
         <v>256</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>257</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>258</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H2" t="s">
         <v>259</v>
-      </c>
-      <c r="G2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>305</v>
       </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>257</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" t="s">
         <v>256</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>257</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>258</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>260</v>
+      </c>
+      <c r="H10" t="s">
         <v>259</v>
-      </c>
-      <c r="G10" t="s">
-        <v>261</v>
-      </c>
-      <c r="H10" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="I13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="E14" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="K14" s="10" t="s">
+      <c r="L14" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="M14" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="N14" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>305</v>
       </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>257</v>
-      </c>
       <c r="E17" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="I17" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -33531,13 +33531,13 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -33704,7 +33704,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -33712,7 +33712,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -33720,7 +33720,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -33728,7 +33728,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -33736,7 +33736,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
@@ -33744,7 +33744,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
@@ -33752,7 +33752,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
@@ -33760,7 +33760,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
@@ -33768,7 +33768,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -33783,7 +33783,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
@@ -33797,7 +33797,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -33811,7 +33811,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
@@ -33825,7 +33825,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
@@ -33839,7 +33839,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
@@ -33854,7 +33854,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
@@ -33868,7 +33868,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
@@ -33882,84 +33882,84 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" t="s">
         <v>151</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>152</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>153</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="I18" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="J18" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="K18" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="L18" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="M18" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>152</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>153</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="I19" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="K19" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="L19" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="M19" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -34129,7 +34129,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -34164,7 +34164,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>119</v>
@@ -34176,7 +34176,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>55</v>
@@ -34194,7 +34194,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>55</v>
@@ -34211,7 +34211,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>55</v>
@@ -34228,7 +34228,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>55</v>
@@ -34245,7 +34245,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>55</v>
@@ -34256,7 +34256,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>119</v>
@@ -34268,7 +34268,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>119</v>
@@ -34280,7 +34280,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>53</v>
@@ -34292,7 +34292,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>53</v>
@@ -34303,7 +34303,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>53</v>
@@ -34314,7 +34314,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>119</v>
@@ -34329,7 +34329,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>53</v>
@@ -34340,7 +34340,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>54</v>
@@ -34348,7 +34348,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>119</v>
@@ -34360,7 +34360,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>119</v>

--- a/dds/maintenance.xlsx
+++ b/dds/maintenance.xlsx
@@ -521,9 +521,6 @@
     <t>December</t>
   </si>
   <si>
-    <t>1/years</t>
-  </si>
-  <si>
     <t>Number of available crews</t>
   </si>
   <si>
@@ -545,12 +542,6 @@
     <t xml:space="preserve">Wage for technicians at night time                </t>
   </si>
   <si>
-    <t>Annual failure rates for device subsystems</t>
-  </si>
-  <si>
-    <t>Device Subsystem Annual Failure Rates</t>
-  </si>
-  <si>
     <t>options.subsystem_monitering_costs</t>
   </si>
   <si>
@@ -824,12 +815,6 @@
     <t>IndexTableColumn</t>
   </si>
   <si>
-    <t>Device Subsystem Costs</t>
-  </si>
-  <si>
-    <t>Device subsystem costs</t>
-  </si>
-  <si>
     <t>crew_lead_time</t>
   </si>
   <si>
@@ -986,39 +971,12 @@
     <t>filter.lease_area</t>
   </si>
   <si>
-    <t>Control Subsystem Access Requirements</t>
-  </si>
-  <si>
-    <t>Control Subsystem Costs</t>
-  </si>
-  <si>
-    <t>Control Subsystem Annual Failure Rates</t>
-  </si>
-  <si>
-    <t>Control Subsystem Inspections Requirements</t>
-  </si>
-  <si>
-    <t>Control Subsystem On-Site Maintenance Requirements</t>
-  </si>
-  <si>
-    <t>Control Subsystem On-Site Maintenance Parts Data</t>
-  </si>
-  <si>
-    <t>Control Subsystem Operation Weightings</t>
-  </si>
-  <si>
-    <t>Control Subsystem Replacement Requirements</t>
-  </si>
-  <si>
     <t>Requirements data for accessing the device control sub-system</t>
   </si>
   <si>
     <t>Device control sub-system costs</t>
   </si>
   <si>
-    <t>Annual failure rates for the device control sub-system</t>
-  </si>
-  <si>
     <t>Requirements data for inspections of the device control sub-system</t>
   </si>
   <si>
@@ -1052,15 +1010,6 @@
     <t>Subsytem Spares Costs Multiplier</t>
   </si>
   <si>
-    <t>Multiplier of subsystem cost representing loading onto vessels. Defaults to 0</t>
-  </si>
-  <si>
-    <t>Multiplier of subsystem cost representing transit to port. Defaults to 0</t>
-  </si>
-  <si>
-    <t>Multiplier of subsystem cost representing spares. Defaults to 1</t>
-  </si>
-  <si>
     <t>project.maintenance_metrics</t>
   </si>
   <si>
@@ -1383,19 +1332,84 @@
   </si>
   <si>
     <t>\%</t>
+  </si>
+  <si>
+    <t>Failures per 10^{6} hours</t>
+  </si>
+  <si>
+    <t>Failure rates for the device control sub-system</t>
+  </si>
+  <si>
+    <t>Control Sub-System Access Requirements</t>
+  </si>
+  <si>
+    <t>Control Sub-System Costs</t>
+  </si>
+  <si>
+    <t>Control Sub-System Inspections Requirements</t>
+  </si>
+  <si>
+    <t>Control Sub-System On-Site Maintenance Requirements</t>
+  </si>
+  <si>
+    <t>Control Sub-System On-Site Maintenance Parts Data</t>
+  </si>
+  <si>
+    <t>Control Sub-System Operation Weightings</t>
+  </si>
+  <si>
+    <t>Control Sub-System Replacement Requirements</t>
+  </si>
+  <si>
+    <t>Device Sub-System Costs</t>
+  </si>
+  <si>
+    <t>Device sub-system costs</t>
+  </si>
+  <si>
+    <t>Failure rates for device sub-systems</t>
+  </si>
+  <si>
+    <t>Multiplier of sub-system cost representing loading onto vessels. Defaults to 0</t>
+  </si>
+  <si>
+    <t>Multiplier of sub-system cost representing transit to port. Defaults to 0</t>
+  </si>
+  <si>
+    <t>Multiplier of sub-system cost representing spares. Defaults to 1</t>
+  </si>
+  <si>
+    <t>Device Sub-System Failure Rates</t>
+  </si>
+  <si>
+    <t>Control Sub-System Failure Rates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1571,25 +1585,25 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1597,30 +1611,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="6" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
@@ -2013,8 +2030,8 @@
   </sheetPr>
   <dimension ref="A1:AMF96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD70"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -2047,10 +2064,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -2058,205 +2075,205 @@
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1">
       <c r="A2" s="20" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>317</v>
+        <v>259</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="17" customFormat="1">
       <c r="A3" s="20" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>318</v>
+        <v>436</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:8" s="17" customFormat="1">
       <c r="A4" s="20" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>327</v>
+        <v>283</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>434</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:8" s="17" customFormat="1">
       <c r="A5" s="20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>320</v>
+        <v>437</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="17" customFormat="1" ht="14" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>321</v>
+        <v>438</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="17" customFormat="1">
       <c r="A7" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>322</v>
+        <v>439</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="17" customFormat="1">
       <c r="A8" s="20" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>323</v>
+        <v>440</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="17" customFormat="1">
       <c r="A9" s="20" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>324</v>
+        <v>441</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="17" customFormat="1">
       <c r="A10" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="17" customFormat="1">
       <c r="A11" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>263</v>
+        <v>442</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>264</v>
+        <v>443</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:8" s="17" customFormat="1">
       <c r="A12" s="17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>170</v>
+        <v>283</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>444</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:8" s="17" customFormat="1">
       <c r="A13" s="22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>113</v>
@@ -2265,15 +2282,15 @@
         <v>114</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="17" customFormat="1" ht="14" customHeight="1">
       <c r="A14" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>96</v>
@@ -2282,15 +2299,15 @@
         <v>97</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="17" customFormat="1">
       <c r="A15" s="22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>68</v>
@@ -2299,58 +2316,58 @@
         <v>75</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1">
       <c r="A16" s="22" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:1020" s="17" customFormat="1">
       <c r="A17" s="22" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>102</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:1020">
       <c r="A18" s="23" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -3440,16 +3457,16 @@
     </row>
     <row r="23" spans="1:1020" s="15" customFormat="1">
       <c r="A23" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="13"/>
@@ -3458,16 +3475,16 @@
     </row>
     <row r="24" spans="1:1020" s="15" customFormat="1">
       <c r="A24" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>339</v>
+        <v>445</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="13"/>
@@ -3522,7 +3539,7 @@
     </row>
     <row r="28" spans="1:1020" s="14" customFormat="1">
       <c r="A28" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>42</v>
@@ -3539,23 +3556,23 @@
     </row>
     <row r="29" spans="1:1020" s="14" customFormat="1">
       <c r="A29" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>340</v>
+        <v>446</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:1020" s="15" customFormat="1">
       <c r="A30" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>42</v>
@@ -3573,7 +3590,7 @@
     </row>
     <row r="31" spans="1:1020" s="14" customFormat="1">
       <c r="A31" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -3587,7 +3604,7 @@
     </row>
     <row r="32" spans="1:1020" s="14" customFormat="1">
       <c r="A32" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>28</v>
@@ -3601,7 +3618,7 @@
     </row>
     <row r="33" spans="1:1020">
       <c r="A33" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>28</v>
@@ -4631,10 +4648,10 @@
     </row>
     <row r="34" spans="1:1020" s="15" customFormat="1">
       <c r="A34" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>115</v>
@@ -4649,10 +4666,10 @@
     </row>
     <row r="35" spans="1:1020" s="15" customFormat="1">
       <c r="A35" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>69</v>
@@ -4667,10 +4684,10 @@
     </row>
     <row r="36" spans="1:1020" s="15" customFormat="1">
       <c r="A36" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>98</v>
@@ -4685,10 +4702,10 @@
     </row>
     <row r="37" spans="1:1020" s="14" customFormat="1">
       <c r="A37" s="14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>71</v>
@@ -4699,10 +4716,10 @@
     </row>
     <row r="38" spans="1:1020" s="15" customFormat="1">
       <c r="A38" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>103</v>
@@ -4717,23 +4734,23 @@
     </row>
     <row r="39" spans="1:1020" s="14" customFormat="1">
       <c r="A39" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:1020" s="14" customFormat="1">
       <c r="A40" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>42</v>
@@ -4747,7 +4764,7 @@
     </row>
     <row r="41" spans="1:1020" s="14" customFormat="1">
       <c r="A41" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>42</v>
@@ -4761,10 +4778,10 @@
     </row>
     <row r="42" spans="1:1020" s="14" customFormat="1">
       <c r="A42" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>116</v>
@@ -4775,10 +4792,10 @@
     </row>
     <row r="43" spans="1:1020" s="14" customFormat="1">
       <c r="A43" s="14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>70</v>
@@ -4789,10 +4806,10 @@
     </row>
     <row r="44" spans="1:1020" s="14" customFormat="1">
       <c r="A44" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>101</v>
@@ -4803,7 +4820,7 @@
     </row>
     <row r="45" spans="1:1020" s="15" customFormat="1">
       <c r="A45" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>42</v>
@@ -4821,10 +4838,10 @@
     </row>
     <row r="46" spans="1:1020" s="14" customFormat="1">
       <c r="A46" s="14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>72</v>
@@ -4835,10 +4852,10 @@
     </row>
     <row r="47" spans="1:1020" s="15" customFormat="1">
       <c r="A47" s="14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>104</v>
@@ -4853,27 +4870,27 @@
     </row>
     <row r="48" spans="1:1020" s="14" customFormat="1">
       <c r="A48" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:1020" s="14" customFormat="1">
       <c r="A49" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>38</v>
@@ -4881,13 +4898,13 @@
     </row>
     <row r="50" spans="1:1020" s="14" customFormat="1">
       <c r="A50" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>37</v>
@@ -4895,7 +4912,7 @@
     </row>
     <row r="51" spans="1:1020" s="14" customFormat="1">
       <c r="A51" s="14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>42</v>
@@ -4909,7 +4926,7 @@
     </row>
     <row r="52" spans="1:1020" s="14" customFormat="1">
       <c r="A52" s="14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>42</v>
@@ -4923,30 +4940,30 @@
     </row>
     <row r="53" spans="1:1020" s="14" customFormat="1">
       <c r="A53" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:1020">
       <c r="A54" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -4955,16 +4972,16 @@
     </row>
     <row r="55" spans="1:1020">
       <c r="A55" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
@@ -4973,16 +4990,16 @@
     </row>
     <row r="56" spans="1:1020">
       <c r="A56" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -4991,16 +5008,16 @@
     </row>
     <row r="57" spans="1:1020">
       <c r="A57" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
@@ -6021,16 +6038,16 @@
     </row>
     <row r="58" spans="1:1020">
       <c r="A58" s="14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
@@ -7051,78 +7068,78 @@
     </row>
     <row r="59" spans="1:1020" s="14" customFormat="1">
       <c r="A59" s="26" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:1020" s="14" customFormat="1">
       <c r="A60" s="26" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
     </row>
     <row r="61" spans="1:1020" s="14" customFormat="1">
       <c r="A61" s="30" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="B61" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:1020" s="14" customFormat="1">
       <c r="A62" s="30" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="B62" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
     </row>
     <row r="63" spans="1:1020" s="14" customFormat="1">
       <c r="A63" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
@@ -7131,30 +7148,30 @@
     </row>
     <row r="64" spans="1:1020">
       <c r="A64" s="15" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="1:1020" s="14" customFormat="1">
       <c r="A65" s="15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
@@ -7163,16 +7180,16 @@
     </row>
     <row r="66" spans="1:1020">
       <c r="A66" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
@@ -7181,16 +7198,16 @@
     </row>
     <row r="67" spans="1:1020">
       <c r="A67" s="29" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E67" s="15"/>
       <c r="F67" s="16"/>
@@ -8211,16 +8228,16 @@
     </row>
     <row r="68" spans="1:1020">
       <c r="A68" s="29" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
@@ -9241,16 +9258,16 @@
     </row>
     <row r="69" spans="1:1020">
       <c r="A69" s="29" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
@@ -10271,16 +10288,16 @@
     </row>
     <row r="70" spans="1:1020">
       <c r="A70" s="29" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
@@ -11301,16 +11318,16 @@
     </row>
     <row r="71" spans="1:1020">
       <c r="A71" s="29" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="16"/>
@@ -11319,16 +11336,16 @@
     </row>
     <row r="72" spans="1:1020">
       <c r="A72" s="29" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="16"/>
@@ -12349,16 +12366,16 @@
     </row>
     <row r="73" spans="1:1020">
       <c r="A73" s="29" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="16"/>
@@ -13379,16 +13396,16 @@
     </row>
     <row r="74" spans="1:1020">
       <c r="A74" s="29" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="E74" s="15"/>
       <c r="F74" s="16"/>
@@ -14409,16 +14426,16 @@
     </row>
     <row r="75" spans="1:1020" s="14" customFormat="1">
       <c r="A75" s="29" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="E75" s="15"/>
       <c r="F75" s="16"/>
@@ -14427,16 +14444,16 @@
     </row>
     <row r="76" spans="1:1020">
       <c r="A76" s="29" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="E76" s="15"/>
       <c r="F76" s="16"/>
@@ -15457,16 +15474,16 @@
     </row>
     <row r="77" spans="1:1020">
       <c r="A77" s="29" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E77" s="15"/>
       <c r="F77" s="16"/>
@@ -16487,16 +16504,16 @@
     </row>
     <row r="78" spans="1:1020">
       <c r="A78" s="29" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="E78" s="15"/>
       <c r="F78" s="16"/>
@@ -17517,16 +17534,16 @@
     </row>
     <row r="79" spans="1:1020" s="14" customFormat="1">
       <c r="A79" s="29" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="16"/>
@@ -17535,16 +17552,16 @@
     </row>
     <row r="80" spans="1:1020">
       <c r="A80" s="29" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="16"/>
@@ -18565,16 +18582,16 @@
     </row>
     <row r="81" spans="1:1020">
       <c r="A81" s="29" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="16"/>
@@ -19595,16 +19612,16 @@
     </row>
     <row r="82" spans="1:1020">
       <c r="A82" s="29" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="B82" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="16"/>
@@ -20625,16 +20642,16 @@
     </row>
     <row r="83" spans="1:1020">
       <c r="A83" s="29" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -20643,16 +20660,16 @@
     </row>
     <row r="84" spans="1:1020">
       <c r="A84" s="29" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="16"/>
@@ -21673,16 +21690,16 @@
     </row>
     <row r="85" spans="1:1020">
       <c r="A85" s="29" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="16"/>
@@ -22703,16 +22720,16 @@
     </row>
     <row r="86" spans="1:1020">
       <c r="A86" s="29" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="16"/>
@@ -23733,16 +23750,16 @@
     </row>
     <row r="87" spans="1:1020">
       <c r="A87" s="29" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="16"/>
@@ -23751,16 +23768,16 @@
     </row>
     <row r="88" spans="1:1020">
       <c r="A88" s="29" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="16"/>
@@ -24781,16 +24798,16 @@
     </row>
     <row r="89" spans="1:1020">
       <c r="A89" s="29" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="E89" s="15"/>
       <c r="F89" s="16"/>
@@ -24799,16 +24816,16 @@
     </row>
     <row r="90" spans="1:1020">
       <c r="A90" s="29" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="16"/>
@@ -25829,16 +25846,16 @@
     </row>
     <row r="91" spans="1:1020" s="14" customFormat="1">
       <c r="A91" s="29" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="E91" s="15"/>
       <c r="F91" s="16"/>
@@ -25847,16 +25864,16 @@
     </row>
     <row r="92" spans="1:1020">
       <c r="A92" s="29" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="16"/>
@@ -25865,16 +25882,16 @@
     </row>
     <row r="93" spans="1:1020">
       <c r="A93" s="29" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="E93" s="15"/>
       <c r="F93" s="16"/>
@@ -26895,16 +26912,16 @@
     </row>
     <row r="94" spans="1:1020" s="14" customFormat="1">
       <c r="A94" s="29" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="E94" s="15"/>
       <c r="F94" s="16"/>
@@ -26913,16 +26930,16 @@
     </row>
     <row r="95" spans="1:1020">
       <c r="A95" s="29" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="E95" s="15"/>
       <c r="F95" s="16"/>
@@ -27943,16 +27960,16 @@
     </row>
     <row r="96" spans="1:1020">
       <c r="A96" s="29" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="E96" s="15"/>
       <c r="F96" s="16"/>
@@ -29037,25 +29054,25 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" t="s">
         <v>243</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>244</v>
-      </c>
-      <c r="E2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" t="s">
-        <v>247</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -29066,13 +29083,13 @@
     </row>
     <row r="3" spans="1:18" s="7" customFormat="1">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
@@ -29087,16 +29104,16 @@
         <v>83</v>
       </c>
       <c r="H3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K3" t="s">
         <v>244</v>
-      </c>
-      <c r="I3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K3" t="s">
-        <v>247</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
@@ -29108,13 +29125,13 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D4" t="s">
         <v>79</v>
@@ -29135,24 +29152,24 @@
         <v>83</v>
       </c>
       <c r="J4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K4" t="s">
+        <v>242</v>
+      </c>
+      <c r="L4" t="s">
+        <v>243</v>
+      </c>
+      <c r="M4" t="s">
         <v>244</v>
-      </c>
-      <c r="K4" t="s">
-        <v>245</v>
-      </c>
-      <c r="L4" t="s">
-        <v>246</v>
-      </c>
-      <c r="M4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -29169,10 +29186,10 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>119</v>
@@ -29186,13 +29203,13 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D7" t="s">
         <v>79</v>
@@ -29215,25 +29232,25 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" t="s">
         <v>243</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>244</v>
-      </c>
-      <c r="E8" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8" t="s">
-        <v>246</v>
-      </c>
-      <c r="G8" t="s">
-        <v>247</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -29249,13 +29266,13 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
@@ -29270,27 +29287,27 @@
         <v>83</v>
       </c>
       <c r="H9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I9" t="s">
+        <v>242</v>
+      </c>
+      <c r="J9" t="s">
+        <v>243</v>
+      </c>
+      <c r="K9" t="s">
         <v>244</v>
-      </c>
-      <c r="I9" t="s">
-        <v>245</v>
-      </c>
-      <c r="J9" t="s">
-        <v>246</v>
-      </c>
-      <c r="K9" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D10" t="s">
         <v>79</v>
@@ -29311,24 +29328,24 @@
         <v>83</v>
       </c>
       <c r="J10" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" t="s">
+        <v>242</v>
+      </c>
+      <c r="L10" t="s">
+        <v>243</v>
+      </c>
+      <c r="M10" t="s">
         <v>244</v>
-      </c>
-      <c r="K10" t="s">
-        <v>245</v>
-      </c>
-      <c r="L10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M10" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
@@ -29345,10 +29362,10 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="21" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>119</v>
@@ -29362,13 +29379,13 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D13" t="s">
         <v>79</v>
@@ -29391,10 +29408,10 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
         <v>107</v>
@@ -29441,10 +29458,10 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
@@ -29461,10 +29478,10 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
         <v>78</v>
@@ -29517,10 +29534,10 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
@@ -29537,10 +29554,10 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
         <v>78</v>
@@ -29593,21 +29610,21 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C20" t="s">
         <v>107</v>
@@ -29654,10 +29671,10 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s">
         <v>59</v>
@@ -29674,10 +29691,10 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
         <v>78</v>
@@ -29730,10 +29747,10 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
         <v>59</v>
@@ -29750,10 +29767,10 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
         <v>78</v>
@@ -29806,210 +29823,210 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="B26" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D26" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="E26" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="F26" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="G26" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="B27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D27" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G27" t="s">
         <v>200</v>
       </c>
-      <c r="C27" t="s">
-        <v>333</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="H27" t="s">
         <v>201</v>
       </c>
-      <c r="E27" t="s">
-        <v>184</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="I27" t="s">
         <v>202</v>
-      </c>
-      <c r="G27" t="s">
-        <v>203</v>
-      </c>
-      <c r="H27" t="s">
-        <v>204</v>
-      </c>
-      <c r="I27" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="B28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" t="s">
+        <v>319</v>
+      </c>
+      <c r="D28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28" t="s">
         <v>200</v>
       </c>
-      <c r="C28" t="s">
-        <v>333</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="H28" t="s">
         <v>201</v>
       </c>
-      <c r="E28" t="s">
-        <v>184</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="I28" t="s">
         <v>202</v>
-      </c>
-      <c r="G28" t="s">
-        <v>203</v>
-      </c>
-      <c r="H28" t="s">
-        <v>204</v>
-      </c>
-      <c r="I28" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="B29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" t="s">
+        <v>319</v>
+      </c>
+      <c r="D29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" t="s">
         <v>200</v>
       </c>
-      <c r="C29" t="s">
-        <v>333</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="H29" t="s">
         <v>201</v>
       </c>
-      <c r="E29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="I29" t="s">
         <v>202</v>
-      </c>
-      <c r="G29" t="s">
-        <v>203</v>
-      </c>
-      <c r="H29" t="s">
-        <v>204</v>
-      </c>
-      <c r="I29" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="B30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" t="s">
+        <v>319</v>
+      </c>
+      <c r="D30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" t="s">
         <v>200</v>
       </c>
-      <c r="C30" t="s">
-        <v>333</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="H30" t="s">
         <v>201</v>
       </c>
-      <c r="E30" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="I30" t="s">
         <v>202</v>
-      </c>
-      <c r="G30" t="s">
-        <v>203</v>
-      </c>
-      <c r="H30" t="s">
-        <v>204</v>
-      </c>
-      <c r="I30" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="B31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" t="s">
+        <v>319</v>
+      </c>
+      <c r="D31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" t="s">
         <v>200</v>
       </c>
-      <c r="C31" t="s">
-        <v>333</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="H31" t="s">
         <v>201</v>
       </c>
-      <c r="E31" t="s">
-        <v>184</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="I31" t="s">
         <v>202</v>
-      </c>
-      <c r="G31" t="s">
-        <v>203</v>
-      </c>
-      <c r="H31" t="s">
-        <v>204</v>
-      </c>
-      <c r="I31" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="B32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" t="s">
+        <v>319</v>
+      </c>
+      <c r="D32" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" t="s">
+        <v>199</v>
+      </c>
+      <c r="G32" t="s">
         <v>200</v>
       </c>
-      <c r="C32" t="s">
-        <v>333</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="H32" t="s">
         <v>201</v>
       </c>
-      <c r="E32" t="s">
-        <v>184</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="I32" t="s">
         <v>202</v>
-      </c>
-      <c r="G32" t="s">
-        <v>203</v>
-      </c>
-      <c r="H32" t="s">
-        <v>204</v>
-      </c>
-      <c r="I32" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -30086,7 +30103,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="10" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B2" t="s">
         <v>149</v>
@@ -30115,7 +30132,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>16</v>
@@ -30126,7 +30143,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>16</v>
@@ -30137,7 +30154,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="10" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>149</v>
@@ -30172,7 +30189,7 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
         <v>149</v>
@@ -30213,7 +30230,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="10" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>149</v>
@@ -30233,7 +30250,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="10" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>149</v>
@@ -30250,7 +30267,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B9" t="s">
         <v>149</v>
@@ -30279,7 +30296,7 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B10" t="s">
         <v>149</v>
@@ -30313,7 +30330,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -30324,7 +30341,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>16</v>
@@ -30335,7 +30352,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>149</v>
@@ -30370,7 +30387,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B14" t="s">
         <v>149</v>
@@ -30411,7 +30428,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>149</v>
@@ -30431,7 +30448,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>149</v>
@@ -30448,7 +30465,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
         <v>149</v>
@@ -30521,7 +30538,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>36</v>
@@ -30532,7 +30549,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>16</v>
@@ -30576,7 +30593,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>16</v>
@@ -30587,7 +30604,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>16</v>
@@ -30598,7 +30615,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>16</v>
@@ -30609,7 +30626,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>36</v>
@@ -30620,7 +30637,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>16</v>
@@ -30631,7 +30648,7 @@
     </row>
     <row r="32" spans="1:18" s="7" customFormat="1">
       <c r="A32" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>36</v>
@@ -30655,7 +30672,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="10" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>36</v>
@@ -30666,7 +30683,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>35</v>
@@ -30677,7 +30694,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>149</v>
@@ -30727,7 +30744,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>149</v>
@@ -30759,7 +30776,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>149</v>
@@ -30815,7 +30832,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>149</v>
@@ -30847,7 +30864,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>149</v>
@@ -30903,7 +30920,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>16</v>
@@ -30916,7 +30933,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>16</v>
@@ -30927,7 +30944,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>16</v>
@@ -30938,7 +30955,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>16</v>
@@ -30949,7 +30966,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>149</v>
@@ -30999,7 +31016,7 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>149</v>
@@ -31031,7 +31048,7 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>149</v>
@@ -31087,7 +31104,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>16</v>
@@ -31098,7 +31115,7 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>149</v>
@@ -31130,7 +31147,7 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>149</v>
@@ -31186,7 +31203,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>35</v>
@@ -31197,7 +31214,7 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>35</v>
@@ -31208,7 +31225,7 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>35</v>
@@ -31219,7 +31236,7 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>16</v>
@@ -31232,7 +31249,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>16</v>
@@ -31243,7 +31260,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>16</v>
@@ -31254,7 +31271,7 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>16</v>
@@ -31265,7 +31282,7 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>16</v>
@@ -31276,7 +31293,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>16</v>
@@ -31287,7 +31304,7 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>16</v>
@@ -31298,7 +31315,7 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>35</v>
@@ -31309,7 +31326,7 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>35</v>
@@ -31320,7 +31337,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="10" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>36</v>
@@ -31331,7 +31348,7 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="10" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>16</v>
@@ -31342,7 +31359,7 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
@@ -31365,7 +31382,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="11" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>16</v>
@@ -31376,7 +31393,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>16</v>
@@ -31384,7 +31401,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>16</v>
@@ -31392,7 +31409,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>16</v>
@@ -31400,7 +31417,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>16</v>
@@ -31408,7 +31425,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>16</v>
@@ -31416,7 +31433,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>16</v>
@@ -31424,7 +31441,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>16</v>
@@ -31432,7 +31449,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>16</v>
@@ -31440,7 +31457,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>16</v>
@@ -31448,7 +31465,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>16</v>
@@ -31456,7 +31473,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>16</v>
@@ -31464,7 +31481,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>16</v>
@@ -31472,7 +31489,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>16</v>
@@ -31480,7 +31497,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>16</v>
@@ -31488,7 +31505,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>16</v>
@@ -31496,7 +31513,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>35</v>
@@ -31504,7 +31521,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>35</v>
@@ -31512,7 +31529,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>35</v>
@@ -31520,7 +31537,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>35</v>
@@ -31528,7 +31545,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>16</v>
@@ -31536,7 +31553,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>16</v>
@@ -31544,7 +31561,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>16</v>
@@ -31552,7 +31569,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>16</v>
@@ -31560,7 +31577,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="B89" t="s">
         <v>93</v>
@@ -31589,7 +31606,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="B90" t="s">
         <v>93</v>
@@ -31618,7 +31635,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="B91" t="s">
         <v>93</v>
@@ -31647,7 +31664,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -31676,7 +31693,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="B93" t="s">
         <v>93</v>
@@ -31705,7 +31722,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="B94" t="s">
         <v>93</v>
@@ -31734,7 +31751,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="B95" t="s">
         <v>35</v>
@@ -31742,7 +31759,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="B96" t="s">
         <v>35</v>
@@ -31767,13 +31784,14 @@
   <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="51.08984375"/>
-    <col min="2" max="1025" width="19.90625"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="1025" width="19.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="5" customFormat="1">
@@ -31795,7 +31813,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
         <v>93</v>
@@ -31829,7 +31847,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>65</v>
@@ -31840,10 +31858,10 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>162</v>
+        <v>171</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>433</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -31851,7 +31869,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>93</v>
@@ -31886,7 +31904,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
         <v>93</v>
@@ -31927,7 +31945,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
         <v>93</v>
@@ -31947,7 +31965,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
@@ -31976,7 +31994,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B9" t="s">
         <v>93</v>
@@ -32005,7 +32023,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>65</v>
@@ -32016,10 +32034,10 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>162</v>
+        <v>295</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>433</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -32027,7 +32045,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>93</v>
@@ -32062,7 +32080,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
         <v>93</v>
@@ -32103,7 +32121,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B14" t="s">
         <v>93</v>
@@ -32123,7 +32141,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
         <v>93</v>
@@ -32166,7 +32184,7 @@
         <v>140</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -32174,7 +32192,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>65</v>
@@ -32185,7 +32203,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>65</v>
@@ -32196,7 +32214,7 @@
     </row>
     <row r="20" spans="1:18" s="7" customFormat="1">
       <c r="A20" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>66</v>
@@ -32220,7 +32238,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>93</v>
@@ -32270,7 +32288,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>93</v>
@@ -32290,7 +32308,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>93</v>
@@ -32346,7 +32364,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>93</v>
@@ -32366,7 +32384,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>93</v>
@@ -32422,21 +32440,21 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>191</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -32444,7 +32462,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>93</v>
@@ -32494,7 +32512,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>93</v>
@@ -32514,7 +32532,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>93</v>
@@ -32570,7 +32588,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>93</v>
@@ -32590,7 +32608,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>93</v>
@@ -32646,7 +32664,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>93</v>
@@ -32657,7 +32675,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>67</v>
@@ -32668,7 +32686,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>67</v>
@@ -32679,7 +32697,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>67</v>
@@ -32690,7 +32708,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>67</v>
@@ -32701,16 +32719,16 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C38" t="s">
         <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E38" t="s">
         <v>93</v>
@@ -32724,7 +32742,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="11" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>65</v>
@@ -32732,7 +32750,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>65</v>
@@ -32740,7 +32758,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>65</v>
@@ -32748,7 +32766,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>65</v>
@@ -32756,39 +32774,39 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>66</v>
@@ -32796,7 +32814,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>66</v>
@@ -32804,7 +32822,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>66</v>
@@ -32812,7 +32830,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>66</v>
@@ -32820,23 +32838,23 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>66</v>
@@ -32844,7 +32862,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>66</v>
@@ -32852,7 +32870,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="B55" t="s">
         <v>93</v>
@@ -32881,7 +32899,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="B56" t="s">
         <v>93</v>
@@ -32910,7 +32928,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="B57" t="s">
         <v>93</v>
@@ -32939,7 +32957,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="B58" t="s">
         <v>93</v>
@@ -32968,7 +32986,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="B59" t="s">
         <v>93</v>
@@ -32997,7 +33015,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="B60" t="s">
         <v>93</v>
@@ -33076,453 +33094,453 @@
         <v>31</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" t="s">
         <v>255</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" t="s">
         <v>256</v>
-      </c>
-      <c r="E2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G2" t="s">
-        <v>260</v>
-      </c>
-      <c r="H2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="K5" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="M6" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="10" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>280</v>
-      </c>
       <c r="G9" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" t="s">
         <v>255</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H10" t="s">
         <v>256</v>
-      </c>
-      <c r="E10" t="s">
-        <v>257</v>
-      </c>
-      <c r="F10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G10" t="s">
-        <v>260</v>
-      </c>
-      <c r="H10" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="K13" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="M14" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="N14" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E17" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>280</v>
-      </c>
       <c r="G17" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -33531,13 +33549,13 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -33704,7 +33722,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -33712,7 +33730,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -33720,7 +33738,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -33728,7 +33746,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -33736,7 +33754,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
@@ -33744,7 +33762,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
@@ -33752,7 +33770,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
@@ -33760,7 +33778,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
@@ -33768,7 +33786,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -33783,7 +33801,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
@@ -33797,7 +33815,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -33811,7 +33829,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
@@ -33825,7 +33843,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
@@ -33839,7 +33857,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
@@ -33854,7 +33872,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
@@ -33868,7 +33886,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
@@ -34129,7 +34147,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -34164,7 +34182,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>119</v>
@@ -34176,7 +34194,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>55</v>
@@ -34194,7 +34212,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>55</v>
@@ -34211,7 +34229,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>55</v>
@@ -34228,7 +34246,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>55</v>
@@ -34245,7 +34263,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>55</v>
@@ -34256,7 +34274,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>119</v>
@@ -34268,7 +34286,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>119</v>
@@ -34280,7 +34298,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>53</v>
@@ -34292,7 +34310,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>53</v>
@@ -34303,7 +34321,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>53</v>
@@ -34314,7 +34332,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>119</v>
@@ -34329,7 +34347,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>53</v>
@@ -34340,7 +34358,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>54</v>
@@ -34348,7 +34366,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>119</v>
@@ -34360,7 +34378,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>119</v>

--- a/dds/maintenance.xlsx
+++ b/dds/maintenance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,36 +29,48 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">ROOT!$A$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">ROOT!$A$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">ROOT!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">ROOT!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">ROOT!$A$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Labels!$A$1:$R$25</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Labels!$A$1:$R$25</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Labels!$A$1:$R$25</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Labels!$A$1:$R$25</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Labels!$A$1:$R$25</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Labels!$A$1:$R$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Labels!$A$1:$R$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Labels!$A$1:$R$25</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Types!$A$1:$R$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Types!$A$1:$R$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Types!$A$1:$R$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Types!$A$1:$R$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Types!$A$1:$R$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Types!$A$1:$R$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Types!$A$1:$R$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Types!$A$1:$R$58</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Units!$A$1:$R$36</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Units!$A$1:$R$36</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Units!$A$1:$R$36</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Units!$A$1:$R$36</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Units!$A$1:$R$36</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Units!$A$1:$R$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Units!$A$1:$R$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Units!$A$1:$R$36</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Tables!$A$1:$N$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Tables!$A$1:$N$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Tables!$A$1:$N$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Tables!$A$1:$N$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Tables!$A$1:$N$18</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Tables!$A$1:$N$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Tables!$A$1:$N$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Tables!$A$1:$N$18</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Valid Values'!$A$1:$M$41</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Valid Values'!$A$1:$M$41</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Valid Values'!$A$1:$M$41</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Valid Values'!$A$1:$M$41</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Valid Values'!$A$1:$M$41</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Valid Values'!$A$1:$M$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Valid Values'!$A$1:$M$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Valid Values'!$A$1:$M$41</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -70,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="447">
   <si>
     <t xml:space="preserve">Identifier</t>
   </si>
@@ -294,7 +306,7 @@
     <t xml:space="preserve">Calendar Based Maintenance Interval</t>
   </si>
   <si>
-    <t xml:space="preserve">Interval between calendar based maintenance actions for device and array sub-systems</t>
+    <t xml:space="preserve">Interval between calendar based maintenance actions for device and array sub-systems. Values of zero or less exclude the sub-system</t>
   </si>
   <si>
     <t xml:space="preserve">options.condition_maintenance_soh</t>
@@ -303,7 +315,7 @@
     <t xml:space="preserve">Condition Based Maintenance Health Threshold</t>
   </si>
   <si>
-    <t xml:space="preserve">State of health threshold for triggering condition based maintenance for device and array sub-systems</t>
+    <t xml:space="preserve">State of health threshold for triggering condition based maintenance for device and array sub-systems. Values of zero or less exclude the sub-system</t>
   </si>
   <si>
     <t xml:space="preserve">options.curtail_devices</t>
@@ -384,10 +396,16 @@
     <t xml:space="preserve">Calendar Based Maintenance</t>
   </si>
   <si>
+    <t xml:space="preserve">Apply calendar based maintenance to sub-systems. Chosen sub-systems have perfect reliability up to their MTTF</t>
+  </si>
+  <si>
     <t xml:space="preserve">project.condition_based_maintenance</t>
   </si>
   <si>
     <t xml:space="preserve">Condition Based Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply condition based maintenance to sub-systems</t>
   </si>
   <si>
     <t xml:space="preserve">project.electrical_inspections_requirements</t>
@@ -1691,8 +1709,8 @@
   </sheetPr>
   <dimension ref="A1:AMF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2230,35 +2248,35 @@
         <v>103</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2267,16 +2285,16 @@
     </row>
     <row r="34" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -2285,16 +2303,16 @@
     </row>
     <row r="35" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -2303,30 +2321,30 @@
     </row>
     <row r="36" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -2335,100 +2353,100 @@
     </row>
     <row r="38" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -2437,30 +2455,30 @@
     </row>
     <row r="45" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -2469,58 +2487,58 @@
     </row>
     <row r="47" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -2529,16 +2547,16 @@
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -2547,16 +2565,16 @@
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -2565,16 +2583,16 @@
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -2583,16 +2601,16 @@
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2601,72 +2619,72 @@
     </row>
     <row r="55" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>65</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E59" s="0"/>
       <c r="F59" s="0"/>
@@ -3687,16 +3705,16 @@
     </row>
     <row r="60" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3705,16 +3723,16 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
@@ -3723,16 +3741,16 @@
     </row>
     <row r="62" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -3741,16 +3759,16 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -3759,16 +3777,16 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -3777,16 +3795,16 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -3795,16 +3813,16 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -3813,16 +3831,16 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -3831,16 +3849,16 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -3849,16 +3867,16 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3867,16 +3885,16 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -3885,16 +3903,16 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -3903,16 +3921,16 @@
     </row>
     <row r="72" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -3921,16 +3939,16 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -3939,16 +3957,16 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -3957,16 +3975,16 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -3975,16 +3993,16 @@
     </row>
     <row r="76" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -3993,16 +4011,16 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -4011,16 +4029,16 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -4029,16 +4047,16 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -4047,16 +4065,16 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -4065,16 +4083,16 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -4083,16 +4101,16 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -4101,16 +4119,16 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -4119,16 +4137,16 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -4137,16 +4155,16 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -4155,16 +4173,16 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -4173,16 +4191,16 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -4191,16 +4209,16 @@
     </row>
     <row r="88" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -4209,16 +4227,16 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -4227,16 +4245,16 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -4245,16 +4263,16 @@
     </row>
     <row r="91" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -4263,16 +4281,16 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -4281,16 +4299,16 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -4354,19 +4372,19 @@
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4374,22 +4392,22 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -4403,34 +4421,34 @@
         <v>20</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>300</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4438,40 +4456,40 @@
         <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="J4" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>300</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4479,19 +4497,19 @@
         <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4499,16 +4517,16 @@
         <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4516,28 +4534,28 @@
         <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>304</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4545,22 +4563,22 @@
         <v>35</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -4579,34 +4597,34 @@
         <v>44</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="J9" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>300</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4614,40 +4632,40 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="J10" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="L10" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="M10" s="0" t="s">
         <v>300</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4655,19 +4673,19 @@
         <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4675,16 +4693,16 @@
         <v>53</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4692,675 +4710,675 @@
         <v>56</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>304</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>306</v>
-      </c>
       <c r="F15" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>301</v>
-      </c>
       <c r="K16" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C17" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>306</v>
-      </c>
       <c r="F17" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>301</v>
-      </c>
       <c r="K18" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>306</v>
-      </c>
       <c r="F21" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="J22" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>301</v>
-      </c>
       <c r="K22" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>306</v>
-      </c>
       <c r="F23" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="J24" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>301</v>
-      </c>
       <c r="K24" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="J29" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>342</v>
-      </c>
       <c r="K29" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="J32" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>342</v>
-      </c>
       <c r="K32" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -5396,19 +5414,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -5437,22 +5455,22 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -5466,7 +5484,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5477,7 +5495,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5488,34 +5506,34 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5523,40 +5541,40 @@
         <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5564,19 +5582,19 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5584,16 +5602,16 @@
         <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5601,28 +5619,28 @@
         <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5630,22 +5648,22 @@
         <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -5664,7 +5682,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5675,7 +5693,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5686,34 +5704,34 @@
         <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5721,40 +5739,40 @@
         <v>47</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5762,19 +5780,19 @@
         <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5782,16 +5800,16 @@
         <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5799,28 +5817,28 @@
         <v>56</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5828,7 +5846,7 @@
         <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5839,7 +5857,7 @@
         <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -5850,7 +5868,7 @@
         <v>71</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -5861,7 +5879,7 @@
         <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -5872,7 +5890,7 @@
         <v>78</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -5883,7 +5901,7 @@
         <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -5894,7 +5912,7 @@
         <v>84</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -5905,7 +5923,7 @@
         <v>87</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -5916,7 +5934,7 @@
         <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -5927,7 +5945,7 @@
         <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -5938,7 +5956,7 @@
         <v>96</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -5949,7 +5967,7 @@
         <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5960,7 +5978,7 @@
         <v>102</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -5968,10 +5986,10 @@
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5979,10 +5997,10 @@
     </row>
     <row r="32" s="10" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5990,10 +6008,10 @@
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -6001,249 +6019,249 @@
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q38" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -6251,10 +6269,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -6262,10 +6280,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -6273,148 +6291,148 @@
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6422,111 +6440,111 @@
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q48" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="R48" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6534,10 +6552,10 @@
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6545,10 +6563,10 @@
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6556,10 +6574,10 @@
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6567,10 +6585,10 @@
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6578,10 +6596,10 @@
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6589,10 +6607,10 @@
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6600,10 +6618,10 @@
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6614,7 +6632,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6622,10 +6640,10 @@
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6633,33 +6651,33 @@
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6667,408 +6685,408 @@
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7097,7 +7115,7 @@
   </sheetPr>
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
@@ -7110,19 +7128,19 @@
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7130,22 +7148,22 @@
         <v>35</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -7164,7 +7182,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -7175,7 +7193,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7186,34 +7204,34 @@
         <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7221,40 +7239,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7262,19 +7280,19 @@
         <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7282,28 +7300,28 @@
         <v>56</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7311,22 +7329,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -7340,7 +7358,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -7351,7 +7369,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -7362,34 +7380,34 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7397,40 +7415,40 @@
         <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7438,19 +7456,19 @@
         <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7458,28 +7476,28 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7487,7 +7505,7 @@
         <v>71</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -7498,7 +7516,7 @@
         <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -7509,7 +7527,7 @@
         <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -7517,10 +7535,10 @@
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -7528,223 +7546,223 @@
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M22" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="O22" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="N22" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>360</v>
-      </c>
       <c r="P22" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M24" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="O24" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="N24" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>360</v>
-      </c>
       <c r="P24" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -7752,223 +7770,223 @@
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M29" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="O29" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="N29" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="O29" s="0" t="s">
-        <v>360</v>
-      </c>
       <c r="P29" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M31" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="O31" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="N31" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="O31" s="0" t="s">
-        <v>360</v>
-      </c>
       <c r="P31" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -7976,10 +7994,10 @@
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -7987,10 +8005,10 @@
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -7998,10 +8016,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -8009,359 +8027,359 @@
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8400,46 +8418,46 @@
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8447,25 +8465,25 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8473,13 +8491,13 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -8488,13 +8506,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -8503,37 +8521,37 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8541,43 +8559,43 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8585,22 +8603,22 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8608,19 +8626,19 @@
         <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -8629,31 +8647,31 @@
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8661,25 +8679,25 @@
         <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8687,13 +8705,13 @@
         <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -8702,13 +8720,13 @@
         <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -8717,37 +8735,37 @@
         <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8755,43 +8773,43 @@
         <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8799,22 +8817,22 @@
         <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8822,19 +8840,19 @@
         <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -8843,31 +8861,31 @@
         <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -8879,10 +8897,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -8918,19 +8936,19 @@
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8938,7 +8956,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8946,7 +8964,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8954,7 +8972,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8962,7 +8980,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8970,7 +8988,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8978,7 +8996,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8986,7 +9004,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8994,7 +9012,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9002,13 +9020,13 @@
         <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -9017,13 +9035,13 @@
         <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9031,13 +9049,13 @@
         <v>41</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9045,13 +9063,13 @@
         <v>44</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9059,13 +9077,13 @@
         <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9073,13 +9091,13 @@
         <v>53</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -9088,13 +9106,13 @@
         <v>56</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9102,13 +9120,13 @@
         <v>47</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9116,40 +9134,40 @@
         <v>64</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9157,40 +9175,40 @@
         <v>68</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9198,34 +9216,34 @@
         <v>71</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>423</v>
-      </c>
       <c r="E20" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9233,34 +9251,34 @@
         <v>75</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>423</v>
-      </c>
       <c r="E21" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9268,34 +9286,34 @@
         <v>84</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>423</v>
-      </c>
       <c r="E22" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9303,34 +9321,34 @@
         <v>87</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>423</v>
-      </c>
       <c r="E23" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9338,22 +9356,22 @@
         <v>90</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C24" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>423</v>
-      </c>
       <c r="E24" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -9363,34 +9381,34 @@
         <v>93</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C25" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>423</v>
-      </c>
       <c r="E25" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9398,88 +9416,88 @@
         <v>99</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -9487,120 +9505,120 @@
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F41" s="1"/>
     </row>

--- a/dds/maintenance.xlsx
+++ b/dds/maintenance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Python\git\dtocean-core\dds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09422F9D-C1E4-4765-AB89-7000A97D54F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685CE249-B8D7-495A-9ACD-D680FBAD562B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">'Valid Values'!$A$1:$M$41</definedName>
     <definedName name="A">ROOT!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -1925,8 +1925,8 @@
   </sheetPr>
   <dimension ref="A1:AMF93"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4545,7 +4545,7 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -5599,8 +5599,8 @@
   </sheetPr>
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7005,7 +7005,7 @@
         <v>248</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -7013,7 +7013,7 @@
         <v>251</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -7021,7 +7021,7 @@
         <v>254</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -7029,7 +7029,7 @@
         <v>257</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
